--- a/output/FUNDO_14655180000154.xlsx
+++ b/output/FUNDO_14655180000154.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>FUNDO DE INVESTIMENTO MULTIMERCADO SCULPTOR CRÉDITO PRIVADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1102 +383,817 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41152</v>
       </c>
       <c r="B2">
-        <v>0.01163515350000011</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41182</v>
       </c>
       <c r="B3">
-        <v>0.02294759749999997</v>
-      </c>
-      <c r="C3">
         <v>0.01118233580640382</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41213</v>
       </c>
       <c r="B4">
-        <v>0.0465485605</v>
-      </c>
-      <c r="C4">
         <v>0.02307152688728031</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41243</v>
       </c>
       <c r="B5">
-        <v>0.04877683739999994</v>
-      </c>
-      <c r="C5">
         <v>0.002129167230362716</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41274</v>
       </c>
       <c r="B6">
-        <v>0.0612048557</v>
-      </c>
-      <c r="C6">
         <v>0.01185001218258219</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41305</v>
       </c>
       <c r="B7">
-        <v>0.06515376289999986</v>
-      </c>
-      <c r="C7">
         <v>0.003721154477186239</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41333</v>
       </c>
       <c r="B8">
-        <v>0.05975500710000015</v>
-      </c>
-      <c r="C8">
         <v>-0.005068522487589933</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41364</v>
       </c>
       <c r="B9">
-        <v>0.05843935379999987</v>
-      </c>
-      <c r="C9">
         <v>-0.001241469293549735</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41394</v>
       </c>
       <c r="B10">
-        <v>0.07083205539999993</v>
-      </c>
-      <c r="C10">
         <v>0.01170846639016943</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41425</v>
       </c>
       <c r="B11">
-        <v>0.04475432079999986</v>
-      </c>
-      <c r="C11">
         <v>-0.02435277732721497</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41455</v>
       </c>
       <c r="B12">
-        <v>0.02974240759999991</v>
-      </c>
-      <c r="C12">
         <v>-0.01436884528843574</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41486</v>
       </c>
       <c r="B13">
-        <v>0.03944969799999987</v>
-      </c>
-      <c r="C13">
         <v>0.009426911359924128</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41517</v>
       </c>
       <c r="B14">
-        <v>0.0251196907000002</v>
-      </c>
-      <c r="C14">
         <v>-0.01378614792766975</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41547</v>
       </c>
       <c r="B15">
-        <v>0.03274437140000019</v>
-      </c>
-      <c r="C15">
         <v>0.007437844350442147</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41578</v>
       </c>
       <c r="B16">
-        <v>0.03776985310000014</v>
-      </c>
-      <c r="C16">
         <v>0.004866142909292659</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41608</v>
       </c>
       <c r="B17">
-        <v>0.03141563620000021</v>
-      </c>
-      <c r="C17">
         <v>-0.00612295383318251</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41639</v>
       </c>
       <c r="B18">
-        <v>0.03567771850000012</v>
-      </c>
-      <c r="C18">
         <v>0.00413226457929472</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>41670</v>
       </c>
       <c r="B19">
-        <v>0.04088510070000018</v>
-      </c>
-      <c r="C19">
         <v>0.005027994816323877</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>41698</v>
       </c>
       <c r="B20">
-        <v>0.0520920118999999</v>
-      </c>
-      <c r="C20">
         <v>0.01076671305263477</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41729</v>
       </c>
       <c r="B21">
-        <v>0.05665529440000006</v>
-      </c>
-      <c r="C21">
         <v>0.004337341647294934</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41759</v>
       </c>
       <c r="B22">
-        <v>0.0683086759</v>
-      </c>
-      <c r="C22">
         <v>0.01102855544448578</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>41790</v>
       </c>
       <c r="B23">
-        <v>0.08142541969999995</v>
-      </c>
-      <c r="C23">
         <v>0.01227804668809762</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>41820</v>
       </c>
       <c r="B24">
-        <v>0.09165752540000005</v>
-      </c>
-      <c r="C24">
         <v>0.009461684101006895</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>41851</v>
       </c>
       <c r="B25">
-        <v>0.09700343339999984</v>
-      </c>
-      <c r="C25">
         <v>0.004897055968208441</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>41882</v>
       </c>
       <c r="B26">
-        <v>0.1054735749</v>
-      </c>
-      <c r="C26">
         <v>0.007721162251742575</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>41912</v>
       </c>
       <c r="B27">
-        <v>0.1085845776000001</v>
-      </c>
-      <c r="C27">
         <v>0.002814180972423141</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>41943</v>
       </c>
       <c r="B28">
-        <v>0.1150268442</v>
-      </c>
-      <c r="C28">
         <v>0.005811254035255509</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>41973</v>
       </c>
       <c r="B29">
-        <v>0.1408744105000002</v>
-      </c>
-      <c r="C29">
         <v>0.02318111571434422</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42004</v>
       </c>
       <c r="B30">
-        <v>0.1468774831000002</v>
-      </c>
-      <c r="C30">
         <v>0.005261817203323194</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42035</v>
       </c>
       <c r="B31">
-        <v>0.1586437788999999</v>
-      </c>
-      <c r="C31">
         <v>0.01025941826688892</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42063</v>
       </c>
       <c r="B32">
-        <v>0.1698707018499999</v>
-      </c>
-      <c r="C32">
         <v>0.009689710637948323</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42094</v>
       </c>
       <c r="B33">
-        <v>0.1839942467</v>
-      </c>
-      <c r="C33">
         <v>0.0120727400281635</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42124</v>
       </c>
       <c r="B34">
-        <v>0.1972549965799999</v>
-      </c>
-      <c r="C34">
         <v>0.01120001209208565</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42155</v>
       </c>
       <c r="B35">
-        <v>0.2089710439400001</v>
-      </c>
-      <c r="C35">
         <v>0.009785757748739909</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42185</v>
       </c>
       <c r="B36">
-        <v>0.2202450305899999</v>
-      </c>
-      <c r="C36">
         <v>0.009325274336809741</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42216</v>
       </c>
       <c r="B37">
-        <v>0.2329874707799999</v>
-      </c>
-      <c r="C37">
         <v>0.01044252578012062</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42247</v>
       </c>
       <c r="B38">
-        <v>0.2370654962999998</v>
-      </c>
-      <c r="C38">
         <v>0.003307434679299837</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42277</v>
       </c>
       <c r="B39">
-        <v>0.2440498745399999</v>
-      </c>
-      <c r="C39">
         <v>0.005645924375782929</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42308</v>
       </c>
       <c r="B40">
-        <v>0.2625061817900001</v>
-      </c>
-      <c r="C40">
         <v>0.01483566505468636</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42338</v>
       </c>
       <c r="B41">
-        <v>0.2797759232999999</v>
-      </c>
-      <c r="C41">
         <v>0.01367893619777338</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42369</v>
       </c>
       <c r="B42">
-        <v>0.3019612553300002</v>
-      </c>
-      <c r="C42">
         <v>0.01733532536914262</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42400</v>
       </c>
       <c r="B43">
-        <v>0.31099610963</v>
-      </c>
-      <c r="C43">
         <v>0.006939418713892476</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42429</v>
       </c>
       <c r="B44">
-        <v>0.3207945452300001</v>
-      </c>
-      <c r="C44">
         <v>0.007474038655054027</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42460</v>
       </c>
       <c r="B45">
-        <v>0.33374811332</v>
-      </c>
-      <c r="C45">
         <v>0.009807405804923341</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42490</v>
       </c>
       <c r="B46">
-        <v>0.34766388258</v>
-      </c>
-      <c r="C46">
         <v>0.01043358121449223</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42521</v>
       </c>
       <c r="B47">
-        <v>0.3538866886900001</v>
-      </c>
-      <c r="C47">
         <v>0.004617476353292904</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42551</v>
       </c>
       <c r="B48">
-        <v>0.3684737731200001</v>
-      </c>
-      <c r="C48">
         <v>0.01077422841354192</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42582</v>
       </c>
       <c r="B49">
-        <v>0.41402338062</v>
-      </c>
-      <c r="C49">
         <v>0.03328496928088787</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42613</v>
       </c>
       <c r="B50">
-        <v>0.4164014440299999</v>
-      </c>
-      <c r="C50">
         <v>0.001681770925850756</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42643</v>
       </c>
       <c r="B51">
-        <v>0.4272280498400001</v>
-      </c>
-      <c r="C51">
         <v>0.00764374101398535</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42674</v>
       </c>
       <c r="B52">
-        <v>0.43155744844</v>
-      </c>
-      <c r="C52">
         <v>0.003033431553202126</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42704</v>
       </c>
       <c r="B53">
-        <v>0.4424769088</v>
-      </c>
-      <c r="C53">
         <v>0.007627678771745527</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42735</v>
       </c>
       <c r="B54">
-        <v>0.42296571917</v>
-      </c>
-      <c r="C54">
         <v>-0.01352617120660282</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42766</v>
       </c>
       <c r="B55">
-        <v>0.4320286447000001</v>
-      </c>
-      <c r="C55">
         <v>0.006369039962035306</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>42794</v>
       </c>
       <c r="B56">
-        <v>0.4359140564199999</v>
-      </c>
-      <c r="C56">
         <v>0.002713222067435517</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42825</v>
       </c>
       <c r="B57">
-        <v>0.44356443956</v>
-      </c>
-      <c r="C57">
         <v>0.00532788373078108</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>42855</v>
       </c>
       <c r="B58">
-        <v>0.4493100403200001</v>
-      </c>
-      <c r="C58">
         <v>0.00398014844543515</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>42886</v>
       </c>
       <c r="B59">
-        <v>0.45430391071</v>
-      </c>
-      <c r="C59">
         <v>0.00344568812129209</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>42916</v>
       </c>
       <c r="B60">
-        <v>0.4611159979100001</v>
-      </c>
-      <c r="C60">
         <v>0.004684087796115843</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>42947</v>
       </c>
       <c r="B61">
-        <v>0.47323832978</v>
-      </c>
-      <c r="C61">
         <v>0.008296625242171007</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>42978</v>
       </c>
       <c r="B62">
-        <v>0.4805317288399999</v>
-      </c>
-      <c r="C62">
         <v>0.004950590079399575</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43008</v>
       </c>
       <c r="B63">
-        <v>0.48544367861</v>
-      </c>
-      <c r="C63">
         <v>0.003317693011448464</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43039</v>
       </c>
       <c r="B64">
-        <v>0.5433060598599999</v>
-      </c>
-      <c r="C64">
         <v>0.03895292839654774</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43069</v>
       </c>
       <c r="B65">
-        <v>0.5555486024899998</v>
-      </c>
-      <c r="C65">
         <v>0.007932673206188623</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43100</v>
       </c>
       <c r="B66">
-        <v>0.5619159730300001</v>
-      </c>
-      <c r="C66">
         <v>0.004093327929328483</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43131</v>
       </c>
       <c r="B67">
-        <v>0.56861506896</v>
-      </c>
-      <c r="C67">
         <v>0.004289024535042207</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43159</v>
       </c>
       <c r="B68">
-        <v>0.52942383243</v>
-      </c>
-      <c r="C68">
         <v>-0.02498461050484746</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43190</v>
       </c>
       <c r="B69">
-        <v>0.5352876544799998</v>
-      </c>
-      <c r="C69">
         <v>0.003834007242245807</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43220</v>
       </c>
       <c r="B70">
-        <v>0.53687623148</v>
-      </c>
-      <c r="C70">
         <v>0.001034709681514423</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43251</v>
       </c>
       <c r="B71">
-        <v>0.53882940814</v>
-      </c>
-      <c r="C71">
         <v>0.001270874400939315</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43281</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43312</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43343</v>
       </c>
       <c r="B74">
-        <v>0.5205258105000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43373</v>
       </c>
       <c r="B75">
-        <v>0.4789306923900001</v>
-      </c>
-      <c r="C75">
         <v>-0.02735574616541514</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43404</v>
       </c>
       <c r="B76">
-        <v>0.4772745224800001</v>
-      </c>
-      <c r="C76">
         <v>-0.001119842815164973</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43434</v>
       </c>
       <c r="B77">
-        <v>0.4774643490599999</v>
-      </c>
-      <c r="C77">
         <v>0.0001284978364624045</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43465</v>
       </c>
       <c r="B78">
-        <v>0.45608436802</v>
-      </c>
-      <c r="C78">
         <v>-0.01447072550589967</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43496</v>
       </c>
       <c r="B79">
-        <v>0.45324254557</v>
-      </c>
-      <c r="C79">
         <v>-0.001951688042544086</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43524</v>
       </c>
       <c r="B80">
-        <v>0.4111006559499999</v>
-      </c>
-      <c r="C80">
         <v>-0.02899852453980489</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43555</v>
       </c>
       <c r="B81">
-        <v>0.4079663302700001</v>
-      </c>
-      <c r="C81">
         <v>-0.00222119213592864</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43585</v>
       </c>
       <c r="B82">
-        <v>0.4051923203500001</v>
-      </c>
-      <c r="C82">
         <v>-0.001970224614297411</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43616</v>
       </c>
       <c r="B83">
-        <v>0.4004167792</v>
-      </c>
-      <c r="C83">
         <v>-0.003398496476845758</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43646</v>
       </c>
       <c r="B84">
-        <v>0.33883854185</v>
-      </c>
-      <c r="C84">
         <v>-0.04397136499976606</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>43677</v>
       </c>
       <c r="B85">
-        <v>0.33597867761</v>
-      </c>
-      <c r="C85">
         <v>-0.002136078511788431</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43708</v>
       </c>
       <c r="B86">
-        <v>0.3129038418299999</v>
-      </c>
-      <c r="C86">
         <v>-0.01727185932434183</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43738</v>
       </c>
       <c r="B87">
-        <v>0.3127056694299999</v>
-      </c>
-      <c r="C87">
         <v>-0.0001509420520270366</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43769</v>
       </c>
       <c r="B88">
-        <v>0.31110134517</v>
-      </c>
-      <c r="C88">
         <v>-0.001222150781672537</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>43799</v>
       </c>
       <c r="B89">
-        <v>0.30869406711</v>
-      </c>
-      <c r="C89">
         <v>-0.001836073213461464</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43830</v>
       </c>
       <c r="B90">
-        <v>0.3089392390299999</v>
-      </c>
-      <c r="C90">
         <v>0.0001873408966706069</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>43861</v>
       </c>
       <c r="B91">
-        <v>0.3095059204799999</v>
-      </c>
-      <c r="C91">
         <v>0.0004329318222746625</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>43890</v>
       </c>
       <c r="B92">
-        <v>0.3162190414799999</v>
-      </c>
-      <c r="C92">
         <v>0.005126453340156933</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>43921</v>
       </c>
       <c r="B93">
-        <v>0.17615869186</v>
-      </c>
-      <c r="C93">
         <v>-0.1064111255087994</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>43951</v>
       </c>
       <c r="B94">
-        <v>0.1793792803100001</v>
-      </c>
-      <c r="C94">
         <v>0.002738226118881082</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>43982</v>
       </c>
       <c r="B95">
-        <v>0.17749064531</v>
-      </c>
-      <c r="C95">
         <v>-0.001601380515607875</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>44012</v>
       </c>
       <c r="B96">
-        <v>0.1605169797799999</v>
-      </c>
-      <c r="C96">
         <v>-0.01441511709465126</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>44043</v>
       </c>
       <c r="B97">
-        <v>0.1584862788200001</v>
-      </c>
-      <c r="C97">
         <v>-0.001749824427717317</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>44074</v>
       </c>
       <c r="B98">
-        <v>0.1786013507299999</v>
-      </c>
-      <c r="C98">
         <v>0.01736323707734244</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>44104</v>
       </c>
       <c r="B99">
-        <v>0.1771664563100002</v>
-      </c>
-      <c r="C99">
         <v>-0.001217455265184464</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>44135</v>
       </c>
       <c r="B100">
-        <v>0.1940564445399999</v>
-      </c>
-      <c r="C100">
         <v>0.0143480033256671</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>44165</v>
       </c>
       <c r="B101">
-        <v>0.19233293474</v>
-      </c>
-      <c r="C101">
         <v>-0.001443407309496103</v>
       </c>
     </row>
